--- a/AWG Calculator.xlsx
+++ b/AWG Calculator.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Dropbox\AWG Calculator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericv_000\Dropbox\AWG Calculator\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11235" firstSheet="36" activeTab="51"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11235" firstSheet="36" activeTab="50"/>
   </bookViews>
   <sheets>
     <sheet name="AL" sheetId="1" r:id="rId1"/>
@@ -67860,8 +67860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67911,7 +67911,7 @@
         <v>674</v>
       </c>
       <c r="B3" s="2">
-        <v>1415</v>
+        <v>1419</v>
       </c>
       <c r="C3" s="2">
         <v>1662</v>
@@ -67931,7 +67931,7 @@
         <v>1028</v>
       </c>
       <c r="B4" s="2">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="C4" s="2">
         <v>1418</v>
@@ -68335,8 +68335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
